--- a/client/public/EMENDAS_2025.xlsx
+++ b/client/public/EMENDAS_2025.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Emendas Parlamentares 2025" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -16,43 +16,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>Origem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Emenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor da Emenda</t>
-  </si>
-  <si>
-    <t>Partido</t>
-  </si>
-  <si>
-    <t>Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codigo do Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Instrumento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N. Proposta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor Previsto</t>
-  </si>
-  <si>
-    <t>Objeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINISTERIO DO TURISMO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>ORIGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE EMENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODALIDADE DE EMENDA</t>
+  </si>
+  <si>
+    <t>PARLAMENTAR</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>PARTIDO</t>
+  </si>
+  <si>
+    <t>PROGRAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÓDIGO DO PROGRAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE INSTRUMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROPOSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR PROPOSTO</t>
+  </si>
+  <si>
+    <t>CONTRAPARTIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANO VIGÊNCIA</t>
+  </si>
+  <si>
+    <t>OBJETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministério do Turismo</t>
   </si>
   <si>
     <t xml:space="preserve">Emenda Individual
-- Transferências
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferências
 com Finalidade
 Definida</t>
   </si>
@@ -60,118 +75,105 @@
     <t xml:space="preserve">Max Lemos</t>
   </si>
   <si>
-    <t xml:space="preserve">Partido Democrático Trabalhista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fomento a Eventos Turisticos - Emendas Parlamentares de Comissao -RP8</t>
-  </si>
-  <si>
-    <t>5400020250024</t>
+    <t xml:space="preserve">Deputado Federal</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fomento a Eventos Turísticos - Emendas Parlamentares de Comissao -RP8</t>
   </si>
   <si>
     <t>Convênio</t>
   </si>
   <si>
-    <t>048043/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contratação de um atração artística para a realização das festas de final de ano no Município de Teresópolis/RJ</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DA EDUCACAO - FUNDO NACIONAL DE DESENVOLVIMENTO DA EDUCACAO</t>
+    <t xml:space="preserve">Ministério da Educação - Fundo Nacional de Desenvolvimento da Educação</t>
   </si>
   <si>
     <t xml:space="preserve">Carlos Portinho</t>
   </si>
   <si>
-    <t xml:space="preserve">Partido Liberal</t>
+    <t>Senador</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
   <si>
     <t xml:space="preserve"> Programa SIMEC/PAR</t>
   </si>
   <si>
-    <t>2629820250001</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Termo de Compromisso</t>
   </si>
   <si>
-    <t>068187/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aquisição de mobiliario escolar</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DO ESPORTE</t>
+    <t xml:space="preserve">Ministério do Esporte</t>
   </si>
   <si>
     <t>Bebeto</t>
   </si>
   <si>
-    <t>Podemos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apoio a Implantacao e Modernizacao de Infraestrutura para Esporte Amador, Educacional, Recreativo e de Lazer -SNEAELIS (Emenda de Comissão - RP8)</t>
-  </si>
-  <si>
-    <t>5100020250027</t>
+    <t>PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apoio a Implantação e Modernização de Infraestrutura para Esporte Amador, Educacional, Recreativo e de Lazer -SNEAELIS (Emenda de Comissão - RP8)</t>
   </si>
   <si>
     <t xml:space="preserve">Convênio ou Contrato de Repasse</t>
   </si>
   <si>
-    <t>068157/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ampliação, modificação e recuperação do Ginásio de Esporte e da Vila Olímpica no Município de Teresópolis/RJ</t>
   </si>
   <si>
+    <t xml:space="preserve"> Transferências
+com Finalidade
+Definida</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hugo Leal</t>
   </si>
   <si>
-    <t xml:space="preserve">Partido Social Democrático</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apoio a Implantacao e Modernizacao de Infraestrutura para Esporte Amador, Educacional, Recreativo e de Lazer -SNEAELIS (Emenda Parlamentar Individual - RP6)</t>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apoio a Implantação e Modernizacao de Infraestrutura para Esporte Amador, Educacional, Recreativo e de Lazer -SNEAELIS (Emenda Parlamentar Individual - RP6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aquisição e Instalação de Equipamentos Esportivos e Playgrounds no município de Teresópolis/RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministério da Integração e do Desenvolvimento Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hugo Leal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão de Riscos e de Desastres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquisição de equipamentos para Secretaria Municipal de Defesa Civil do Município de Teresópolis/RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apoio a Implantação e Modernização de Infraestrutura para Esporte Amador, Educacional, Recreativo e de Lazer -SNEAELIS (Emenda Parlamentar Individual - RP6)</t>
   </si>
   <si>
     <t>5100020250008</t>
   </si>
   <si>
-    <t>029663/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aquisição e Instalação de Equipamentos Esportivos e Playgrounds no município de Teresópolis/RJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINISTÉRIO DA INTEGRAÇÃO E DO DESENVOLVIMENTO REGIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestão de Riscos e de Desastres</t>
-  </si>
-  <si>
-    <t>5300020250027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 062375/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquisição de equipamentos para Secretaria Municipal de Defesa Civil do Município de Teresópolis/RJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contrato de Repasse</t>
   </si>
   <si>
-    <t>029289/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Construção do Espaço Esportivo Comunitário, no Munícipio de Teresópolis/RJ.</t>
   </si>
   <si>
     <t xml:space="preserve">Marcelo Crivella</t>
   </si>
   <si>
-    <t>Republicanos</t>
+    <t>REPLUBLICANOS</t>
   </si>
   <si>
     <t xml:space="preserve"> Apoio a Projetos de Desenvolvimento Sustentável Local Integrado - RP8 - Emenda de Comissão - Equipamentos e Obras - CINDRE</t>
@@ -180,13 +182,7 @@
     <t>5300020250022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 057664/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aquisição de máquina e equipamentos para apoio à infraestrutura produtivas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor Total Recebido : </t>
   </si>
 </sst>
 </file>
@@ -196,7 +192,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;&quot; &quot;#,##0.00;[Red]&quot;-&quot;&quot;R$&quot;&quot; &quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot; #,##0;[Red]-&quot;R$&quot; #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -208,14 +204,14 @@
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10.000000"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -227,18 +223,18 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color rgb="FF474747"/>
+      <color theme="1" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="10.000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <color theme="0" tint="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,18 +246,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0"/>
-        <bgColor theme="8" tint="0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor theme="9" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -284,16 +280,73 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="43">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,47 +358,93 @@
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,26 +455,33 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabela3" ref="A1:J9">
-  <autoFilter ref="A1:J9"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Origem"/>
-    <tableColumn id="2" name="Tipo de Emenda"/>
-    <tableColumn id="3" name="Autor da Emenda"/>
-    <tableColumn id="4" name="Partido"/>
-    <tableColumn id="5" name="Programa"/>
-    <tableColumn id="6" name="Codigo do Programa"/>
-    <tableColumn id="7" name="Tipo de Instrumento"/>
-    <tableColumn id="8" name="N. Proposta"/>
-    <tableColumn id="9" name="Valor Previsto"/>
-    <tableColumn id="10" name="Objeto"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabela2" ref="$A$1:$N$8">
+  <autoFilter ref="$A$1:$N$8"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="ORIGEM"/>
+    <tableColumn id="2" name="TIPO DE EMENDA"/>
+    <tableColumn id="3" name="MODALIDADE DE EMENDA"/>
+    <tableColumn id="4" name="PARLAMENTAR"/>
+    <tableColumn id="5" name="CARGO"/>
+    <tableColumn id="6" name="PARTIDO"/>
+    <tableColumn id="7" name="PROGRAMA"/>
+    <tableColumn id="8" name="CÓDIGO DO PROGRAMA"/>
+    <tableColumn id="9" name="TIPO DE INSTRUMENTO"/>
+    <tableColumn id="10" name=" PROPOSTA"/>
+    <tableColumn id="11" name="VALOR PROPOSTO"/>
+    <tableColumn id="12" name="CONTRAPARTIDA"/>
+    <tableColumn id="13" name="ANO VIGÊNCIA"/>
+    <tableColumn id="14" name="OBJETO"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -873,355 +979,458 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="K1" activeCellId="0" sqref="K:K"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.8515625"/>
-    <col customWidth="1" min="2" max="2" width="18.57421875"/>
-    <col customWidth="1" min="3" max="3" width="19.28125"/>
-    <col min="4" max="4" width="15.57421875"/>
-    <col bestFit="1" min="5" max="5" width="19.8515625"/>
-    <col customWidth="1" min="6" max="6" width="23.00390625"/>
-    <col customWidth="1" min="7" max="7" width="22.421875"/>
-    <col customWidth="1" min="8" max="8" width="17.00390625"/>
-    <col customWidth="1" min="9" max="9" width="18.8515625"/>
-    <col customWidth="1" min="10" max="10" width="37.00390625"/>
+    <col customWidth="1" min="1" max="1" width="32.85546875"/>
+    <col customWidth="1" min="2" max="2" width="24.28515625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="27.140625"/>
+    <col customWidth="1" min="4" max="5" width="29.7109375"/>
+    <col min="6" max="6" width="15.5703125"/>
+    <col customWidth="1" min="7" max="7" style="2" width="39.8515625"/>
+    <col customWidth="1" min="8" max="8" width="24.8515625"/>
+    <col customWidth="1" min="9" max="9" width="27.7109375"/>
+    <col customWidth="1" min="10" max="10" width="17"/>
+    <col customWidth="1" min="11" max="11" width="20.28125"/>
+    <col customWidth="1" min="12" max="12" width="18.85546875"/>
+    <col customWidth="1" min="13" max="13" style="3" width="18.85546875"/>
+    <col customWidth="1" min="14" max="14" style="4" width="48.7109375"/>
+    <col customWidth="1" min="15" max="15" width="29.00390625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="67.5">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="2" ht="54">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7">
+      <c r="E2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5400020250024</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="11">
+        <v>48043</v>
+      </c>
+      <c r="K2" s="15">
         <v>304647</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16">
+        <v>2025</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="54">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2629820250001</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="11">
+        <v>68187</v>
+      </c>
+      <c r="K3" s="20">
+        <v>500000</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2025</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="81">
+      <c r="A4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="F4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5100020250027</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11">
+        <v>68157</v>
+      </c>
+      <c r="K4" s="20">
+        <v>3000000</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <v>2025</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" ht="71.25">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    <row r="5" ht="81">
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5100020250008</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="J5" s="11">
+        <v>29663</v>
+      </c>
+      <c r="K5" s="15">
+        <v>490000</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2025</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="54">
+      <c r="A6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="28">
+        <v>5300020250027</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="25">
+        <v>62375</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="30">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <v>2025</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="81">
+      <c r="A7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10">
-        <v>500000</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="11">
+        <v>29289</v>
+      </c>
+      <c r="K7" s="34">
+        <v>1432500</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" ht="108">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10">
-        <v>3000000</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
+    <row r="8" ht="67.5">
+      <c r="A8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="11">
+        <v>57664</v>
+      </c>
+      <c r="K8" s="34">
+        <v>716250</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2025</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" ht="108">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7">
-        <v>490000</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
-      </c>
+    <row r="9">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
     </row>
-    <row r="6" ht="67.5">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>45</v>
-      </c>
+    <row r="10">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
     </row>
-    <row r="7" ht="108">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1432500</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="11">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
     </row>
-    <row r="8" ht="94.5">
-      <c r="A8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="13">
-        <v>716250</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="12">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
-        <v>7443397</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+    <row r="13">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
     </row>
-    <row r="10" ht="14.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+    <row r="17" ht="14.25">
+      <c r="E17" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:I9"/>
-  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
